--- a/example_data/Summary/before/Individual Values/Indv Percentage Change_before_.xlsx
+++ b/example_data/Summary/before/Individual Values/Indv Percentage Change_before_.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,225 +438,923 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-11.69750630332203</v>
+        <v>-36.53460524002129</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>199.580011352391</v>
+        <v>-24.97125643178316</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-11.69750630332203</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>-11.69750630332203</v>
+        <v>-36.53460524002129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.7503093474793</v>
+        <v>12.9126270808607</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-42.26615757645394</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>199.580011352391</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>199.580011352391</v>
+        <v>12.9126270808607</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.2528083622547</v>
+        <v>36.80332707503143</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-57.34582665167161</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>129.7503093474793</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>129.7503093474793</v>
+        <v>36.80332707503143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-20.68127762515097</v>
+        <v>-2.521076498407464</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>30.81763226111262</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>136.2528083622547</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>136.2528083622547</v>
+        <v>-2.521076498407464</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.051459440519917</v>
+        <v>-49.97560126153376</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>76.82297645779025</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-20.68127762515097</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>-20.68127762515097</v>
+        <v>-49.97560126153376</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-39.20610865792933</v>
+        <v>64.39728543033574</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>27.22692075506136</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-6.051459440519917</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>-6.051459440519917</v>
+        <v>64.39728543033574</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>278.1303731199262</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>-3.369876620188746</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-39.20610865792933</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>-39.20610865792933</v>
+        <v>278.1303731199262</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-34.51160321309516</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-9.661156957314502</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-34.51160321309516</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-21.32896605365863</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-15.69473207447394</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-21.32896605365863</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-13.44453936684237</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-23.39008734657742</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>-13.44453936684237</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>37.86121333995964</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-16.17401042507787</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>37.86121333995964</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>40.27221123815485</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>7.614014036608631</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>-24.97125643178316</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>82.64918008869918</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-5.113972690859253</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>-42.26615757645394</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-1.322998676568669</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>167.994580253258</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-57.34582665167161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-36.697284170377</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>19.39266015862639</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>30.81763226111262</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-63.11856786068901</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>76.82297645779025</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>304.1272575769982</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>27.22692075506136</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>33.93216189871686</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>-3.369876620188746</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-9.75822734867023</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>-9.661156957314502</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-37.20489774681589</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>40.27221123815485</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>34.07591262054089</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>82.64918008869918</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>441.1041035308014</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>-1.322998676568669</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>105.4542076293723</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>-36.697284170377</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>50.4852470024829</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>-63.11856786068901</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>235.0927366754454</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>304.1272575769982</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-12.8975696309271</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>33.93216189871686</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>31.65691633357459</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>-9.75822734867023</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-9.070849184141833</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>-15.69473207447394</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-26.28735087332722</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>-23.39008734657742</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>38.43980219604568</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>-37.20489774681589</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>144.0307934718301</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>34.07591262054089</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-8.530077185784416</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>-16.17401042507787</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>102.26440155017</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>441.1041035308014</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-13.47770878360189</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>105.4542076293723</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-34.04691010613012</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>50.4852470024829</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>235.0927366754454</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>-12.8975696309271</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>31.65691633357459</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>-9.070849184141833</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>-26.28735087332722</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>38.43980219604568</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>144.0307934718301</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>-8.530077185784416</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>102.26440155017</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>7.614014036608631</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>-5.113972690859253</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>167.994580253258</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>19.39266015862639</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>-34.04691010613012</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +1368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,225 +1379,923 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-11.69750630332208</v>
+        <v>-36.53460524002129</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>199.580011352391</v>
+        <v>-24.97125643178315</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-11.69750630332208</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>-11.69750630332208</v>
+        <v>-36.53460524002129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.7503093474792</v>
+        <v>12.91262708086071</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-42.26615757645395</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>199.580011352391</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>199.580011352391</v>
+        <v>12.91262708086071</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.2528083622548</v>
+        <v>36.80332707503146</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-57.34582665167159</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>129.7503093474792</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>129.7503093474792</v>
+        <v>36.80332707503146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-20.68127762515094</v>
+        <v>-2.521076498407448</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>30.81763226111263</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>136.2528083622548</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>136.2528083622548</v>
+        <v>-2.521076498407448</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.051459440519928</v>
+        <v>-49.97560126153376</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>76.82297645779026</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-20.68127762515094</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>-20.68127762515094</v>
+        <v>-49.97560126153376</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-39.20610865792934</v>
+        <v>64.39728543033571</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>27.22692075506137</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-6.051459440519928</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>-6.051459440519928</v>
+        <v>64.39728543033571</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>278.1303731199263</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>-3.369876620188757</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-39.20610865792934</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>-39.20610865792934</v>
+        <v>278.1303731199263</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-34.51160321309518</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-9.661156957314516</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-34.51160321309518</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-21.32896605365863</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-15.69473207447395</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-21.32896605365863</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-13.44453936684235</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-23.39008734657739</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>-13.44453936684235</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>37.86121333995965</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-16.17401042507787</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>37.86121333995965</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>40.27221123815483</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>7.614014036608671</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>-24.97125643178315</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>82.6491800886991</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-5.11397269085922</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>-42.26615757645395</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-1.322998676568679</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>167.994580253258</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-57.34582665167159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-36.697284170377</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>19.39266015862641</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>30.81763226111263</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-63.118567860689</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>76.82297645779026</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>304.1272575769983</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>27.22692075506137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>33.93216189871682</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>-3.369876620188757</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-9.758227348670202</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>-9.661156957314516</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-37.20489774681587</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>40.27221123815483</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>34.07591262054095</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>82.6491800886991</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>441.1041035308012</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>-1.322998676568679</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>105.4542076293724</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>-36.697284170377</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>50.48524700248291</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>-63.118567860689</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>235.0927366754455</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>304.1272575769983</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-12.89756963092709</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>33.93216189871682</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>31.65691633357461</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>-9.758227348670202</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-9.070849184141812</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>-15.69473207447395</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-26.28735087332723</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>-23.39008734657739</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>38.43980219604571</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>-37.20489774681587</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>144.0307934718301</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>34.07591262054095</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-8.530077185784451</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>-16.17401042507787</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>102.26440155017</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>441.1041035308012</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-13.4777087836019</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>105.4542076293724</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-34.04691010613011</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>50.48524700248291</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>235.0927366754455</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>-12.89756963092709</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>31.65691633357461</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>-9.070849184141812</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>-26.28735087332723</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>38.43980219604571</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>144.0307934718301</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>-8.530077185784451</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>102.26440155017</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>7.614014036608671</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>-5.11397269085922</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>167.994580253258</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>19.39266015862641</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>-34.04691010613011</v>
       </c>
     </row>
   </sheetData>
@@ -913,7 +2309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -924,239 +2320,1019 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-77.92859910014626</v>
+        <v>-156.7054907992534</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-85.96595936331526</v>
+        <v>248.7872665338957</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-77.92859910014626</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>-77.92859910014626</v>
+        <v>-156.7054907992534</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-125.5550581495052</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>-94.10095150673629</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-111.7645452403004</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-85.96595936331526</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>-85.96595936331526</v>
+        <v>-94.10095150673629</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-106.2875578406842</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>3255.834084871034</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-126.9599520502043</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-125.5550581495052</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>-125.5550581495052</v>
+        <v>3255.834084871034</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-324.954476807823</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>-6.763024931460217</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>-33.61881826764808</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-106.2875578406842</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>-106.2875578406842</v>
+        <v>-6.763024931460217</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.16800958932938</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>-112.1284753259772</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>-62.79036978459769</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-324.954476807823</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>-324.954476807823</v>
+        <v>-112.1284753259772</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-116.2106114481903</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+        <v>-152.5184129627113</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-78.77160099835854</v>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>33.16800958932938</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>33.16800958932938</v>
+        <v>-152.5184129627113</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-170.3591340378929</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>307.5119086563257</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-116.2106114481903</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>-116.2106114481903</v>
+        <v>-170.3591340378929</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-71.47005616688423</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-756.5984030384328</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-71.47005616688423</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-93.78136674718964</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-100.5829880417013</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-93.78136674718964</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>201.9098598061404</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-153.9477785133995</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>201.9098598061404</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-413.4729158133491</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-98.05330072432132</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>-413.4729158133491</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>132.5454022723384</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>-17.21749523099501</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>248.7872665338957</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-137.8576899167668</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>10.54655753328949</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>-111.7645452403004</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>12.43897653901517</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>-202.9627889855322</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-126.9599520502043</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-211.8171989898541</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>46.87828980699499</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>-33.61881826764808</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1433.376585690396</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>-62.79036978459769</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-79.85721752844563</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>-78.77160099835854</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-389.2583450746001</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>307.5119086563257</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-51.35206353710395</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>-756.5984030384328</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-197.4510501421569</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>132.5454022723384</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-177.0542566144011</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>-137.8576899167668</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-44.83045770134748</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>12.43897653901517</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-50.31942186752748</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>-211.8171989898541</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-103.0010472196742</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>-1433.376585690396</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-76.7616642490124</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>-79.85721752844563</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>44.11328011260522</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>-389.2583450746001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-88.89875134522583</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>-51.35206353710395</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-69.24724877871262</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>-100.5829880417013</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-5340.829313637081</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>-153.9477785133995</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>256.4504535605304</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>-197.4510501421569</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-124.5072909279901</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>-177.0542566144011</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-101.6379157811085</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>-98.05330072432132</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-152.8662297892181</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>-44.83045770134748</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-24.72148267789094</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>-50.31942186752748</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-86.31761852261744</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>-103.0010472196742</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>-76.7616642490124</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>44.11328011260522</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>-88.89875134522583</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>-69.24724877871262</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>-5340.829313637081</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>256.4504535605304</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>-124.5072909279901</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>-101.6379157811085</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>-152.8662297892181</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>-17.21749523099501</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>10.54655753328949</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>-202.9627889855322</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>46.87828980699499</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>-86.31761852261744</v>
       </c>
     </row>
   </sheetData>
